--- a/medicine/Premiers secours et secourisme/Ciseaux_de_secours/Ciseaux_de_secours.xlsx
+++ b/medicine/Premiers secours et secourisme/Ciseaux_de_secours/Ciseaux_de_secours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ciseaux de secours, parfois appelés ciseaux Jesco (marque commerciale), sont des paires de ciseaux utilisées en secourisme pour couper rapidement les vêtements d'une victime. L'extrémité des lames est arrondie et la lame inférieure possède un guide pour glisser sur la peau sans provoquer de lésion. L'angle de 45° entre les lames et les poignées permet de dégager ces dernières du corps de la victime.
 Les matériaux sont choisis afin que les ciseaux puissent être stérilisés par autoclave.
